--- a/SPRING 20/CSE 101/online_attendance_cse101_sec11.xlsx
+++ b/SPRING 20/CSE 101/online_attendance_cse101_sec11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ulab_course_materials\SPRING 20\CSE 101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02825D1D-DBF5-49C1-A084-3D664CDAEFF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB645F83-0C82-4958-8941-5965A950BAB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>SL</t>
   </si>
@@ -162,19 +162,44 @@
     <t>3.18.2020</t>
   </si>
   <si>
-    <t>p</t>
+    <t>30.03.2020</t>
+  </si>
+  <si>
+    <t>Total Days</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Offline Weight</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Marks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ARIAL"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -218,52 +243,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{5A4404E6-8A13-4CA5-8F66-CD0F58C0FF73}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -665,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -676,12 +698,13 @@
     <col min="1" max="1" width="7.77734375" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" style="7" customWidth="1"/>
     <col min="3" max="3" width="25.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10" style="5"/>
-    <col min="6" max="16384" width="10" style="1"/>
+    <col min="4" max="5" width="14.77734375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1"/>
+    <col min="7" max="7" width="15.77734375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -694,8 +717,20 @@
       <c r="D1" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -705,9 +740,22 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9">
+        <f t="shared" ref="D2:F17" si="0">SUM(C2:E2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <f>$E$46+(F2/$E$44)*$E$45</f>
+        <v>8</v>
+      </c>
+      <c r="H2" s="1">
+        <f>CEILING(G2,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -718,8 +766,21 @@
         <v>4</v>
       </c>
       <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="6"/>
+      <c r="F3" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G41" si="1">$E$46+(F3/$E$44)*$E$45</f>
+        <v>8</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H41" si="2">CEILING(G3,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -729,11 +790,24 @@
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -744,8 +818,21 @@
         <v>6</v>
       </c>
       <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="6"/>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -756,8 +843,21 @@
         <v>7</v>
       </c>
       <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="6"/>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -768,8 +868,21 @@
         <v>8</v>
       </c>
       <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="6"/>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -779,11 +892,26 @@
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -793,11 +921,26 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -807,11 +950,26 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -821,11 +979,26 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -836,8 +1009,21 @@
         <v>13</v>
       </c>
       <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="6"/>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -847,11 +1033,26 @@
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -861,11 +1062,26 @@
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -875,11 +1091,24 @@
       <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -890,8 +1119,21 @@
         <v>17</v>
       </c>
       <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="6"/>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -901,11 +1143,26 @@
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -915,11 +1172,26 @@
       <c r="C18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" ref="F18:F42" si="3">SUM(C18:E18)</f>
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -929,11 +1201,26 @@
       <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -944,8 +1231,23 @@
         <v>21</v>
       </c>
       <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -955,11 +1257,26 @@
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -970,8 +1287,23 @@
         <v>23</v>
       </c>
       <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -981,11 +1313,26 @@
       <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -995,11 +1342,26 @@
       <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1010,8 +1372,21 @@
         <v>26</v>
       </c>
       <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="6"/>
+      <c r="F25" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1021,11 +1396,26 @@
       <c r="C26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1035,11 +1425,26 @@
       <c r="C27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1049,11 +1454,26 @@
       <c r="C28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1064,8 +1484,23 @@
         <v>30</v>
       </c>
       <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1075,11 +1510,26 @@
       <c r="C30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1090,8 +1540,21 @@
         <v>32</v>
       </c>
       <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="6"/>
+      <c r="F31" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1101,11 +1564,26 @@
       <c r="C32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1116,8 +1594,23 @@
         <v>34</v>
       </c>
       <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1127,11 +1620,26 @@
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1141,11 +1649,26 @@
       <c r="C35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1155,11 +1678,24 @@
       <c r="C36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1170,8 +1706,21 @@
         <v>38</v>
       </c>
       <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="6"/>
+      <c r="F37" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1181,11 +1730,26 @@
       <c r="C38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1196,8 +1760,21 @@
         <v>40</v>
       </c>
       <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="6"/>
+      <c r="F39" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1207,11 +1784,24 @@
       <c r="C40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -1221,23 +1811,65 @@
       <c r="C41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="7">
-        <f>COUNTIF(D2:D41,"=p")</f>
+        <f>COUNTIF(D2:D41,"=1")</f>
         <v>25</v>
       </c>
+      <c r="E42" s="7">
+        <f>COUNTIF(E2:E41,"=1")</f>
+        <v>25</v>
+      </c>
+      <c r="F42" s="9">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="7">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:XFD41">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$E2 &gt; 0</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
